--- a/汽柴煤油2.0/eta/LU-FU拟合残差_新加坡高低硫燃料油价差格_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/LU-FU拟合残差_新加坡高低硫燃料油价差格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-88.8</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-87.59999999999999</v>
+        <v>-89.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>50.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-33.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-41.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>14.3</v>
       </c>
       <c r="C5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>13.6</v>
       </c>
       <c r="C6" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>48.3</v>
       </c>
       <c r="C7" t="n">
-        <v>47.3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>70.7</v>
       </c>
       <c r="C8" t="n">
-        <v>71.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-24.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-20.1</v>
+        <v>-20.2</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-65.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-34.3</v>
+        <v>-33.8</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-59.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-45.9</v>
+        <v>-45.8</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-64.3</v>
       </c>
       <c r="C12" t="n">
-        <v>-33.7</v>
+        <v>-33.9</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>-38.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.9</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>54.5</v>
       </c>
       <c r="C14" t="n">
-        <v>58.1</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>125.2</v>
       </c>
       <c r="C15" t="n">
-        <v>126.2</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>111.8</v>
       </c>
       <c r="C16" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>119.6</v>
       </c>
       <c r="C17" t="n">
-        <v>108.1</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>89.5</v>
       </c>
       <c r="C18" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>29.4</v>
       </c>
       <c r="C19" t="n">
-        <v>39.1</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>94.8</v>
       </c>
       <c r="C20" t="n">
-        <v>85.8</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +718,7 @@
         <v>114.3</v>
       </c>
       <c r="C22" t="n">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>99.5</v>
       </c>
       <c r="C23" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>119.9</v>
       </c>
       <c r="C24" t="n">
-        <v>112.1</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="25">
